--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Web Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Web Design\SynodInkhawmpui\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="323">
   <si>
     <t>Mobile</t>
   </si>
@@ -990,6 +990,9 @@
   </si>
   <si>
     <t>Upa H. Lalhmangaihzuala, Bial 9, Synod HSS bul (Mob.78XXXXXXXX)</t>
+  </si>
+  <si>
+    <t>Upa Lalliantluanga Hauhnar</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="H206" sqref="H206"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4792,6 +4795,11 @@
         <v>298</v>
       </c>
     </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="323">
   <si>
     <t>Mobile</t>
   </si>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4795,9 +4795,21 @@
         <v>298</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="15.5">
       <c r="A201" s="6" t="s">
         <v>322</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D201" s="4">
+        <v>7085268238</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -842,9 +842,6 @@
     <t>Upa R. Lalnunhlua</t>
   </si>
   <si>
-    <t>Upa C. Vulmawia</t>
-  </si>
-  <si>
     <t>Upa H.C. Liankipala</t>
   </si>
   <si>
@@ -993,6 +990,9 @@
   </si>
   <si>
     <t>Upa Lalliantluanga Hauhnar</t>
+  </si>
+  <si>
+    <t>Upa C. Vulmawii</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1428,7 +1428,7 @@
         <v>9862153189</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>6009089645</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1462,7 +1462,7 @@
         <v>9862300641</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1479,7 +1479,7 @@
         <v>9436154933</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1496,7 +1496,7 @@
         <v>9436152811</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1513,7 +1513,7 @@
         <v>8974007486</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1530,7 +1530,7 @@
         <v>8787701509</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1547,7 +1547,7 @@
         <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1564,7 +1564,7 @@
         <v>9436140484</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1581,7 +1581,7 @@
         <v>9436147031</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1598,7 +1598,7 @@
         <v>7005474214</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1615,7 +1615,7 @@
         <v>9862304561</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1632,7 +1632,7 @@
         <v>8415852442</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1649,7 +1649,7 @@
         <v>9612204784</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1666,7 +1666,7 @@
         <v>9436366234</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1683,7 +1683,7 @@
         <v>8974864738</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1700,7 +1700,7 @@
         <v>9862331994</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>9612773340</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1734,7 +1734,7 @@
         <v>8729885934</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1751,7 +1751,7 @@
         <v>9862300144</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1768,7 +1768,7 @@
         <v>9862373820</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1785,7 +1785,7 @@
         <v>9862305355</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1802,7 +1802,7 @@
         <v>9366001885</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1819,7 +1819,7 @@
         <v>9089605413</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1836,7 +1836,7 @@
         <v>9436366402</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1853,7 +1853,7 @@
         <v>9436372139</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1870,7 +1870,7 @@
         <v>9436351910</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1887,7 +1887,7 @@
         <v>9436150304</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1904,7 +1904,7 @@
         <v>9436159808</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1921,7 +1921,7 @@
         <v>9436154066</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1938,7 +1938,7 @@
         <v>9436198411</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1955,7 +1955,7 @@
         <v>9862474303</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1972,7 +1972,7 @@
         <v>9436142323</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1989,7 +1989,7 @@
         <v>8837368927</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2006,7 +2006,7 @@
         <v>9402112192</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2023,7 +2023,7 @@
         <v>9436154595</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2040,7 +2040,7 @@
         <v>9435172593</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2057,7 +2057,7 @@
         <v>9485130418</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2074,7 +2074,7 @@
         <v>9612950043</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2091,7 +2091,7 @@
         <v>9612152442</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5">
@@ -2108,7 +2108,7 @@
         <v>9436361352</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2125,7 +2125,7 @@
         <v>8436155938</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2142,7 +2142,7 @@
         <v>9436195043</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2159,7 +2159,7 @@
         <v>8259827006</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2176,7 +2176,7 @@
         <v>9436198554</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2193,7 +2193,7 @@
         <v>9436150261</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2210,7 +2210,7 @@
         <v>9862382412</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2227,7 +2227,7 @@
         <v>9612367819</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2244,7 +2244,7 @@
         <v>8974243476</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2261,7 +2261,7 @@
         <v>8794026682</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2278,7 +2278,7 @@
         <v>8258975797</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2295,7 +2295,7 @@
         <v>9856930670</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2312,7 +2312,7 @@
         <v>862949181</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2329,7 +2329,7 @@
         <v>9774055238</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2346,7 +2346,7 @@
         <v>9436147756</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2363,7 +2363,7 @@
         <v>9436190316</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2380,7 +2380,7 @@
         <v>9862812179</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2397,7 +2397,7 @@
         <v>8415065483</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2414,7 +2414,7 @@
         <v>9615332440</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.5">
@@ -2431,7 +2431,7 @@
         <v>9436141545</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.5">
@@ -2448,7 +2448,7 @@
         <v>9436154944</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31">
@@ -2465,7 +2465,7 @@
         <v>9436151468</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.5">
@@ -2482,7 +2482,7 @@
         <v>9436155927</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.5">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.5">
@@ -2514,7 +2514,7 @@
         <v>8974760377</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.5">
@@ -2531,7 +2531,7 @@
         <v>9436142568</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.5">
@@ -2548,7 +2548,7 @@
         <v>9436198656</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.5">
@@ -2565,7 +2565,7 @@
         <v>9436194848</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.5">
@@ -2582,7 +2582,7 @@
         <v>9862537850</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.5">
@@ -2599,7 +2599,7 @@
         <v>7005320377</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.5">
@@ -2616,7 +2616,7 @@
         <v>9612113058</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="31">
@@ -2633,7 +2633,7 @@
         <v>9436199317</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="31">
@@ -2650,7 +2650,7 @@
         <v>9436153133</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.5">
@@ -2667,7 +2667,7 @@
         <v>9612080573</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.5">
@@ -2684,7 +2684,7 @@
         <v>9436360461</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.5">
@@ -2701,7 +2701,7 @@
         <v>9436153753</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.5">
@@ -2718,7 +2718,7 @@
         <v>8731923342</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.5">
@@ -2735,7 +2735,7 @@
         <v>9436142612</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.5">
@@ -2752,7 +2752,7 @@
         <v>9436140102</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.5">
@@ -2769,7 +2769,7 @@
         <v>9436156835</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="31">
@@ -2786,7 +2786,7 @@
         <v>9436156301</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="31">
@@ -2803,7 +2803,7 @@
         <v>9612894678</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.5">
@@ -2820,7 +2820,7 @@
         <v>9436144906</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.5">
@@ -2837,7 +2837,7 @@
         <v>9615349352</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.5">
@@ -2854,7 +2854,7 @@
         <v>7640876027</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31">
@@ -2871,7 +2871,7 @@
         <v>9436152017</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.5">
@@ -2888,7 +2888,7 @@
         <v>9436192516</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.5">
@@ -2905,7 +2905,7 @@
         <v>9436142745</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.5">
@@ -2922,7 +2922,7 @@
         <v>9436199779</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.5">
@@ -2939,7 +2939,7 @@
         <v>8794722319</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.5">
@@ -2956,7 +2956,7 @@
         <v>9436360042</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="31">
@@ -2973,7 +2973,7 @@
         <v>9436352560</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.5">
@@ -2990,7 +2990,7 @@
         <v>9436155957</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.5">
@@ -3007,7 +3007,7 @@
         <v>9862031004</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.5">
@@ -3024,7 +3024,7 @@
         <v>9863363142</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="31">
@@ -3041,7 +3041,7 @@
         <v>9436366430</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.5">
@@ -3058,7 +3058,7 @@
         <v>9436350198</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="31">
@@ -3075,7 +3075,7 @@
         <v>9612325146</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="31">
@@ -3092,7 +3092,7 @@
         <v>9862356526</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.5">
@@ -3109,7 +3109,7 @@
         <v>8974974386</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.5">
@@ -3126,7 +3126,7 @@
         <v>9856712573</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="31">
@@ -3143,7 +3143,7 @@
         <v>9436153427</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.5">
@@ -3160,7 +3160,7 @@
         <v>9612859815</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.5">
@@ -3177,7 +3177,7 @@
         <v>9862563560</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="31">
@@ -3194,7 +3194,7 @@
         <v>9436152841</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.5">
@@ -3211,7 +3211,7 @@
         <v>9774216491</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.5">
@@ -3228,7 +3228,7 @@
         <v>9862597602</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="31">
@@ -3245,7 +3245,7 @@
         <v>7005046851</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="31">
@@ -3262,7 +3262,7 @@
         <v>9436141758</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="31">
@@ -3279,7 +3279,7 @@
         <v>9436154822</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.5">
@@ -3296,7 +3296,7 @@
         <v>98623433489</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.5">
@@ -3313,7 +3313,7 @@
         <v>9862260888</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.5">
@@ -3330,7 +3330,7 @@
         <v>9919812637</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.5">
@@ -3347,7 +3347,7 @@
         <v>9862913694</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.5">
@@ -3364,7 +3364,7 @@
         <v>9436140810</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.5">
@@ -3381,7 +3381,7 @@
         <v>9436152842</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.5">
@@ -3398,7 +3398,7 @@
         <v>9436140483</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.5">
@@ -3415,7 +3415,7 @@
         <v>9612171150</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.5">
@@ -3432,7 +3432,7 @@
         <v>9436150923</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.5">
@@ -3449,7 +3449,7 @@
         <v>9436145227</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.5">
@@ -3466,7 +3466,7 @@
         <v>8132840604</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.5">
@@ -3483,7 +3483,7 @@
         <v>9615949989</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.5">
@@ -3500,7 +3500,7 @@
         <v>9774025658</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.5">
@@ -3517,7 +3517,7 @@
         <v>8808889543</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.5">
@@ -3534,7 +3534,7 @@
         <v>9862366775</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.5">
@@ -3551,7 +3551,7 @@
         <v>7085208177</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.5">
@@ -3568,7 +3568,7 @@
         <v>9436052861</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.5">
@@ -3585,7 +3585,7 @@
         <v>6909816189</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.5">
@@ -3602,7 +3602,7 @@
         <v>9436746188</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.5">
@@ -3619,7 +3619,7 @@
         <v>9436360986</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.5">
@@ -3636,7 +3636,7 @@
         <v>9436365040</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.5">
@@ -3653,7 +3653,7 @@
         <v>7085532215</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.5">
@@ -3670,7 +3670,7 @@
         <v>9436365426</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.5">
@@ -3687,7 +3687,7 @@
         <v>9761822897</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.5">
@@ -3704,7 +3704,7 @@
         <v>9774250106</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.5">
@@ -3721,7 +3721,7 @@
         <v>9862286723</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.5">
@@ -3738,7 +3738,7 @@
         <v>9862927590</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.5">
@@ -3755,7 +3755,7 @@
         <v>9436155037</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.5">
@@ -3772,7 +3772,7 @@
         <v>9862381397</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.5">
@@ -3789,7 +3789,7 @@
         <v>9436151847</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.5">
@@ -3806,7 +3806,7 @@
         <v>9436142305</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.5">
@@ -3823,7 +3823,7 @@
         <v>8974633198</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.5">
@@ -3840,7 +3840,7 @@
         <v>9862262507</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.5">
@@ -3857,7 +3857,7 @@
         <v>9436192881</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.5">
@@ -3874,7 +3874,7 @@
         <v>9436141588</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.5">
@@ -3891,7 +3891,7 @@
         <v>9612950411</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.5">
@@ -3908,7 +3908,7 @@
         <v>9862683099</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.5">
@@ -3925,7 +3925,7 @@
         <v>8974953108</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.5">
@@ -3942,7 +3942,7 @@
         <v>9862697345</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.5">
@@ -3959,7 +3959,7 @@
         <v>9436153081</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.5">
@@ -3976,7 +3976,7 @@
         <v>9436365872</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.5">
@@ -3993,7 +3993,7 @@
         <v>9862352566</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.5">
@@ -4010,7 +4010,7 @@
         <v>8014341989</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.5">
@@ -4027,7 +4027,7 @@
         <v>9436152475</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.5">
@@ -4044,7 +4044,7 @@
         <v>8794206154</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.5">
@@ -4061,7 +4061,7 @@
         <v>9862751153</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.5">
@@ -4078,7 +4078,7 @@
         <v>8014224459</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.5">
@@ -4095,7 +4095,7 @@
         <v>7421995127</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.5">
@@ -4112,7 +4112,7 @@
         <v>9378043452</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.5">
@@ -4129,7 +4129,7 @@
         <v>9856493054</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.5">
@@ -4146,7 +4146,7 @@
         <v>8787622497</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.5">
@@ -4163,7 +4163,7 @@
         <v>9862008368</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.5">
@@ -4180,7 +4180,7 @@
         <v>9615970939</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.5">
@@ -4197,7 +4197,7 @@
         <v>7005010862</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.5">
@@ -4214,7 +4214,7 @@
         <v>9233553479</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.5">
@@ -4231,7 +4231,7 @@
         <v>9383002309</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.5">
@@ -4248,7 +4248,7 @@
         <v>9402174143</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.5">
@@ -4265,7 +4265,7 @@
         <v>9862516878</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.5">
@@ -4282,7 +4282,7 @@
         <v>8414010782</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.5">
@@ -4299,7 +4299,7 @@
         <v>9612212904</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.5">
@@ -4316,7 +4316,7 @@
         <v>9862929618</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.5">
@@ -4333,7 +4333,7 @@
         <v>8453289676</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.5">
@@ -4350,7 +4350,7 @@
         <v>9721102162</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.5">
@@ -4367,7 +4367,7 @@
         <v>9362862851</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.5">
@@ -4384,7 +4384,7 @@
         <v>9862361413</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.5">
@@ -4401,7 +4401,7 @@
         <v>9863599910</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.5">
@@ -4418,7 +4418,7 @@
         <v>7005804668</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.5">
@@ -4435,7 +4435,7 @@
         <v>7629874987</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.5">
@@ -4452,7 +4452,7 @@
         <v>9856538681</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.5">
@@ -4469,7 +4469,7 @@
         <v>8014780120</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.5">
@@ -4486,7 +4486,7 @@
         <v>8014628900</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.5">
@@ -4503,7 +4503,7 @@
         <v>8575670850</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.5">
@@ -4520,7 +4520,7 @@
         <v>9612857984</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.5">
@@ -4537,7 +4537,7 @@
         <v>9612629884</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.5">
@@ -4554,7 +4554,7 @@
         <v>9863626670</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.5">
@@ -4565,13 +4565,13 @@
         <v>5</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D187" s="4">
         <v>7005809718</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.5">
@@ -4582,13 +4582,13 @@
         <v>5</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D188" s="4">
         <v>7005539220</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.5">
@@ -4599,13 +4599,13 @@
         <v>5</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D189" s="4">
         <v>6009537320</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.5">
@@ -4616,13 +4616,13 @@
         <v>5</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D190" s="4">
         <v>9366977080</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.5">
@@ -4633,13 +4633,13 @@
         <v>5</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D191" s="4">
         <v>9862445087</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.5">
@@ -4650,13 +4650,13 @@
         <v>5</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D192" s="4">
         <v>9774057072</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.5">
@@ -4667,13 +4667,13 @@
         <v>5</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D193" s="4">
         <v>7085077287</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.5">
@@ -4684,13 +4684,13 @@
         <v>5</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D194" s="4">
         <v>9366191435</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.5">
@@ -4701,13 +4701,13 @@
         <v>5</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D195" s="4">
         <v>8575183293</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.5">
@@ -4718,13 +4718,13 @@
         <v>5</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D196" s="4">
         <v>9862859726</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.5">
@@ -4735,13 +4735,13 @@
         <v>5</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D197" s="4">
         <v>7005816740</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.5">
@@ -4752,64 +4752,64 @@
         <v>5</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D198" s="4">
         <v>8787640790</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.5">
       <c r="A199" s="12" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D199" s="4">
         <v>7005886407</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.5">
       <c r="A200" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D200" s="4">
         <v>7085268237</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.5">
       <c r="A201" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D201" s="4">
         <v>7085268238</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -992,10 +992,10 @@
     <t>Upa H. Lalhmangaihzuala, Bial 9, Synod HSS bul (Mob.78XXXXXXXX)</t>
   </si>
   <si>
-    <t>tluanga hauhnar</t>
-  </si>
-  <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Zothanpuii Chhangte</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4764,7 +4764,7 @@
         <v>319</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15.5">
@@ -4803,19 +4803,19 @@
     </row>
     <row r="201" spans="1:6" ht="15.5">
       <c r="A201" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D201" s="4">
-        <v>7085268237</v>
+        <v>9612112696</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -995,7 +995,7 @@
     <t>`</t>
   </si>
   <si>
-    <t>Zothanpuii Chhangte</t>
+    <t>Nl. Zothanpuii Chhangte</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1104,6 +1104,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,7 +1388,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+      <selection activeCell="C206" sqref="C205:C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4802,7 +4803,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.5">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="13" t="s">
         <v>323</v>
       </c>
       <c r="B201" s="4" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -995,7 +995,7 @@
     <t>`</t>
   </si>
   <si>
-    <t>Nl. Zothanpuii Chhangte</t>
+    <t>Zothanpuii Chhangte</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1104,7 +1104,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C206" sqref="C205:C206"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4803,7 +4802,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="15.5">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="12" t="s">
         <v>323</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -4818,6 +4817,9 @@
       <c r="E201" s="6" t="s">
         <v>292</v>
       </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.5">
+      <c r="A202" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="325">
   <si>
     <t>Mobile</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>Zothanpuii Chhangte</t>
+  </si>
+  <si>
+    <t>Pastor Quarters, Bial 8, Biak In bul (Mob.99XXXXXXsXX)</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1066,11 +1069,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1103,6 +1132,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1425,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -4785,7 +4823,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="15.5">
-      <c r="A200" s="12" t="s">
+      <c r="A200" s="13" t="s">
         <v>273</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -4805,7 +4843,7 @@
       <c r="A201" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C201" s="12" t="s">
@@ -4815,11 +4853,11 @@
         <v>9612112696</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.5">
-      <c r="A202" s="12"/>
+      <c r="A202" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
